--- a/biology/Zoologie/Electrostrymon/Electrostrymon.xlsx
+++ b/biology/Zoologie/Electrostrymon/Electrostrymon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Electrostrymon est un genre néotropical de lépidoptères (papillons) de la famille des Lycaenidae et de la sous famille des Theclinae.
-Il est répandu du Sud des États-Unis à l'Amérique du Sud, avec notamment plusieurs espèces dans les Antilles[1],[2].
+Il est répandu du Sud des États-Unis à l'Amérique du Sud, avec notamment plusieurs espèces dans les Antilles,.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (4 février 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (4 février 2020) :
 Electrostrymon mathewi (Hewitson, 1874)
 Electrostrymon ecbatana (Hewitson, 1868)
 Electrostrymon endymion (Fabricius, 1775)
 Electrostrymon constantinoi (Johnson &amp; Kroenlein, 1993)
-Electrostrymon hugon (Godart, [1824])
+Electrostrymon hugon (Godart, )
 Electrostrymon joya (Dognin, 1895)
 Electrostrymon dominicana (Lathy, 1904)
 Electrostrymon pan (Drury, 1773)
